--- a/counts/ALS Mice/experimental/results/control_1-control_3/Results edgeR.xlsx
+++ b/counts/ALS Mice/experimental/results/control_1-control_3/Results edgeR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="558">
   <si>
     <t>header</t>
   </si>
@@ -69,6 +69,12 @@
     <t>entrez</t>
   </si>
   <si>
+    <t>GOID</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
     <t>ENSMUSG00000000031</t>
   </si>
   <si>
@@ -1360,6 +1366,327 @@
   </si>
   <si>
     <t>102637797</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>GO:0001540</t>
+  </si>
+  <si>
+    <t>GO:0001501</t>
+  </si>
+  <si>
+    <t>GO:0000981</t>
+  </si>
+  <si>
+    <t>GO:0005509</t>
+  </si>
+  <si>
+    <t>GO:0003674</t>
+  </si>
+  <si>
+    <t>GO:0005230</t>
+  </si>
+  <si>
+    <t>GO:0005576</t>
+  </si>
+  <si>
+    <t>GO:0003824</t>
+  </si>
+  <si>
+    <t>GO:0003677</t>
+  </si>
+  <si>
+    <t>GO:0000187</t>
+  </si>
+  <si>
+    <t>GO:0000166</t>
+  </si>
+  <si>
+    <t>GO:0005515</t>
+  </si>
+  <si>
+    <t>GO:0003865</t>
+  </si>
+  <si>
+    <t>GO:0004420</t>
+  </si>
+  <si>
+    <t>GO:0000122</t>
+  </si>
+  <si>
+    <t>GO:0001886</t>
+  </si>
+  <si>
+    <t>GO:0001933</t>
+  </si>
+  <si>
+    <t>GO:0001568</t>
+  </si>
+  <si>
+    <t>GO:0001527</t>
+  </si>
+  <si>
+    <t>GO:0001649</t>
+  </si>
+  <si>
+    <t>GO:0001726</t>
+  </si>
+  <si>
+    <t>GO:0001766</t>
+  </si>
+  <si>
+    <t>GO:0005594</t>
+  </si>
+  <si>
+    <t>GO:0005198</t>
+  </si>
+  <si>
+    <t>GO:0005201</t>
+  </si>
+  <si>
+    <t>GO:0005575</t>
+  </si>
+  <si>
+    <t>GO:0003009</t>
+  </si>
+  <si>
+    <t>GO:0004872</t>
+  </si>
+  <si>
+    <t>GO:0005587</t>
+  </si>
+  <si>
+    <t>GO:0001525</t>
+  </si>
+  <si>
+    <t>GO:0006882</t>
+  </si>
+  <si>
+    <t>GO:0002175</t>
+  </si>
+  <si>
+    <t>GO:0000250</t>
+  </si>
+  <si>
+    <t>GO:0005518</t>
+  </si>
+  <si>
+    <t>GO:0001953</t>
+  </si>
+  <si>
+    <t>GO:0003779</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>GO:0004497</t>
+  </si>
+  <si>
+    <t>GO:0005244</t>
+  </si>
+  <si>
+    <t>GO:0004871</t>
+  </si>
+  <si>
+    <t>GO:0005874</t>
+  </si>
+  <si>
+    <t>GO:0004857</t>
+  </si>
+  <si>
+    <t>GO:0005216</t>
+  </si>
+  <si>
+    <t>GO:0002862</t>
+  </si>
+  <si>
+    <t>GO:0004415</t>
+  </si>
+  <si>
+    <t>GO:0004222</t>
+  </si>
+  <si>
+    <t>GO:0000139</t>
+  </si>
+  <si>
+    <t>GO:0000287</t>
+  </si>
+  <si>
+    <t>GO:0001578</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>GO:0003723</t>
+  </si>
+  <si>
+    <t>GO:0001954</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>beta-amyloid binding</t>
+  </si>
+  <si>
+    <t>skeletal system development</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>calcium ion binding</t>
+  </si>
+  <si>
+    <t>molecular_function</t>
+  </si>
+  <si>
+    <t>extracellular ligand-gated ion channel activity</t>
+  </si>
+  <si>
+    <t>extracellular region</t>
+  </si>
+  <si>
+    <t>catalytic activity</t>
+  </si>
+  <si>
+    <t>DNA binding</t>
+  </si>
+  <si>
+    <t>activation of MAPK activity</t>
+  </si>
+  <si>
+    <t>nucleotide binding</t>
+  </si>
+  <si>
+    <t>protein binding</t>
+  </si>
+  <si>
+    <t>3-oxo-5-alpha-steroid 4-dehydrogenase activity</t>
+  </si>
+  <si>
+    <t>hydroxymethylglutaryl-CoA reductase (NADPH) activity</t>
+  </si>
+  <si>
+    <t>negative regulation of transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>endothelial cell morphogenesis</t>
+  </si>
+  <si>
+    <t>negative regulation of protein phosphorylation</t>
+  </si>
+  <si>
+    <t>blood vessel development</t>
+  </si>
+  <si>
+    <t>microfibril</t>
+  </si>
+  <si>
+    <t>osteoblast differentiation</t>
+  </si>
+  <si>
+    <t>ruffle</t>
+  </si>
+  <si>
+    <t>membrane raft polarization</t>
+  </si>
+  <si>
+    <t>collagen type IX trimer</t>
+  </si>
+  <si>
+    <t>structural molecule activity</t>
+  </si>
+  <si>
+    <t>extracellular matrix structural constituent</t>
+  </si>
+  <si>
+    <t>cellular_component</t>
+  </si>
+  <si>
+    <t>skeletal muscle contraction</t>
+  </si>
+  <si>
+    <t>receptor activity</t>
+  </si>
+  <si>
+    <t>collagen type IV trimer</t>
+  </si>
+  <si>
+    <t>angiogenesis</t>
+  </si>
+  <si>
+    <t>cellular zinc ion homeostasis</t>
+  </si>
+  <si>
+    <t>protein localization to paranode region of axon</t>
+  </si>
+  <si>
+    <t>lanosterol synthase activity</t>
+  </si>
+  <si>
+    <t>collagen binding</t>
+  </si>
+  <si>
+    <t>negative regulation of cell-matrix adhesion</t>
+  </si>
+  <si>
+    <t>actin binding</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>monooxygenase activity</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>voltage-gated ion channel activity</t>
+  </si>
+  <si>
+    <t>signal transducer activity</t>
+  </si>
+  <si>
+    <t>microtubule</t>
+  </si>
+  <si>
+    <t>enzyme inhibitor activity</t>
+  </si>
+  <si>
+    <t>ion channel activity</t>
+  </si>
+  <si>
+    <t>negative regulation of inflammatory response to antigenic stimulus</t>
+  </si>
+  <si>
+    <t>hyalurononglucosaminidase activity</t>
+  </si>
+  <si>
+    <t>metalloendopeptidase activity</t>
+  </si>
+  <si>
+    <t>Golgi membrane</t>
+  </si>
+  <si>
+    <t>magnesium ion binding</t>
+  </si>
+  <si>
+    <t>microtubule bundle formation</t>
+  </si>
+  <si>
+    <t>transcription factor activity, sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>RNA binding</t>
+  </si>
+  <si>
+    <t>positive regulation of cell-matrix adhesion</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1834,16 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>-1.9810400293624486</v>
@@ -1522,18 +1855,24 @@
         <v>1.088322250460379E-7</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="H2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>1.186029102887295</v>
@@ -1545,18 +1884,24 @@
         <v>6.43871269433636E-4</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="H3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>-1.6043652136329076</v>
@@ -1568,18 +1913,24 @@
         <v>1.4829547087744304E-9</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>347</v>
+        <v>349</v>
+      </c>
+      <c r="H4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I4" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>2.53666996423395</v>
@@ -1591,18 +1942,24 @@
         <v>5.158747034727556E-4</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="H5" t="s">
+        <v>451</v>
+      </c>
+      <c r="I5" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>1.3041740876763495</v>
@@ -1614,18 +1971,24 @@
         <v>0.004854153143511001</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="H6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I6" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
         <v>-1.5993598090541066</v>
@@ -1637,18 +2000,24 @@
         <v>2.1884047930546866E-14</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="H7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I7" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
         <v>-1.0029700504737424</v>
@@ -1660,18 +2029,24 @@
         <v>0.0013631180527086022</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="H8" t="s">
+        <v>456</v>
+      </c>
+      <c r="I8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
         <v>-2.7935421140751937</v>
@@ -1683,18 +2058,24 @@
         <v>2.4429502860492242E-11</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="H9" t="s">
+        <v>457</v>
+      </c>
+      <c r="I9" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
         <v>1.1179724653160357</v>
@@ -1706,18 +2087,24 @@
         <v>1.4649695636128877E-4</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>355</v>
+      </c>
+      <c r="H10" t="s">
+        <v>458</v>
+      </c>
+      <c r="I10" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
         <v>1.0049746649604225</v>
@@ -1729,18 +2116,24 @@
         <v>0.001085139238432089</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G11" t="s">
-        <v>354</v>
+        <v>356</v>
+      </c>
+      <c r="H11" t="s">
+        <v>459</v>
+      </c>
+      <c r="I11" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
         <v>1.2250814211355026</v>
@@ -1752,18 +2145,24 @@
         <v>0.0036519956862074696</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G12" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="H12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
         <v>-1.0726156867052508</v>
@@ -1775,18 +2174,24 @@
         <v>3.555502359656092E-4</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G13" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="H13" t="s">
+        <v>459</v>
+      </c>
+      <c r="I13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
         <v>-1.7095462438821618</v>
@@ -1798,18 +2203,24 @@
         <v>8.518883201097693E-16</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G14" t="s">
-        <v>357</v>
+        <v>359</v>
+      </c>
+      <c r="H14" t="s">
+        <v>461</v>
+      </c>
+      <c r="I14" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
         <v>-1.0914509793775753</v>
@@ -1821,18 +2232,24 @@
         <v>5.793182176461238E-4</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G15" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="H15" t="s">
+        <v>458</v>
+      </c>
+      <c r="I15" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>-2.123814539426656</v>
@@ -1844,18 +2261,24 @@
         <v>3.181761576656415E-14</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="H16" t="s">
+        <v>462</v>
+      </c>
+      <c r="I16" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>-1.4496088065736286</v>
@@ -1867,18 +2290,24 @@
         <v>6.894546971125459E-6</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G17" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="H17" t="s">
+        <v>463</v>
+      </c>
+      <c r="I17" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>-1.2248479989786458</v>
@@ -1890,18 +2319,24 @@
         <v>2.2797415704714867E-8</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G18" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="H18" t="s">
+        <v>464</v>
+      </c>
+      <c r="I18" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
         <v>-1.13153304792501</v>
@@ -1913,18 +2348,24 @@
         <v>2.5330576223841936E-6</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G19" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="H19" t="s">
+        <v>465</v>
+      </c>
+      <c r="I19" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
         <v>-1.2524588486998776</v>
@@ -1936,18 +2377,24 @@
         <v>1.6175930578665314E-8</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G20" t="s">
-        <v>363</v>
+        <v>365</v>
+      </c>
+      <c r="H20" t="s">
+        <v>455</v>
+      </c>
+      <c r="I20" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
         <v>-1.1050617871200492</v>
@@ -1959,18 +2406,24 @@
         <v>5.250520382803337E-8</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>364</v>
+        <v>366</v>
+      </c>
+      <c r="H21" t="s">
+        <v>466</v>
+      </c>
+      <c r="I21" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
         <v>-1.1314794963062538</v>
@@ -1982,18 +2435,24 @@
         <v>9.457038512907669E-5</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
-        <v>365</v>
+        <v>367</v>
+      </c>
+      <c r="H22" t="s">
+        <v>467</v>
+      </c>
+      <c r="I22" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
         <v>-1.1106437539099558</v>
@@ -2005,18 +2464,24 @@
         <v>1.5382979912001877E-4</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G23" t="s">
-        <v>366</v>
+        <v>368</v>
+      </c>
+      <c r="H23" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
         <v>-1.3987980905743769</v>
@@ -2028,18 +2493,24 @@
         <v>1.5773292371798758E-5</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="H24" t="s">
+        <v>453</v>
+      </c>
+      <c r="I24" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
         <v>1.0343609820233006</v>
@@ -2051,18 +2522,24 @@
         <v>2.0828166643263567E-7</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>368</v>
+        <v>370</v>
+      </c>
+      <c r="H25" t="s">
+        <v>462</v>
+      </c>
+      <c r="I25" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
         <v>1.9145541677659632</v>
@@ -2074,18 +2551,24 @@
         <v>3.5370038128456273E-6</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+      <c r="H26" t="s">
+        <v>468</v>
+      </c>
+      <c r="I26" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
         <v>-2.008124377114462</v>
@@ -2097,18 +2580,24 @@
         <v>3.4175957069820744E-8</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="H27" t="s">
+        <v>469</v>
+      </c>
+      <c r="I27" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
         <v>-1.6936964943749246</v>
@@ -2120,18 +2609,24 @@
         <v>6.705887752894256E-10</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>373</v>
+      </c>
+      <c r="H28" t="s">
+        <v>470</v>
+      </c>
+      <c r="I28" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
         <v>-1.4815444641920597</v>
@@ -2143,18 +2638,24 @@
         <v>4.4426675816368666E-11</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="H29" t="s">
+        <v>453</v>
+      </c>
+      <c r="I29" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
         <v>-2.0713382819805797</v>
@@ -2166,18 +2667,24 @@
         <v>9.773920694370381E-11</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>373</v>
+        <v>375</v>
+      </c>
+      <c r="H30" t="s">
+        <v>469</v>
+      </c>
+      <c r="I30" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
         <v>1.089352372253243</v>
@@ -2189,18 +2696,24 @@
         <v>0.006485679793244982</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="H31" t="s">
+        <v>466</v>
+      </c>
+      <c r="I31" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
         <v>-1.606730983823715</v>
@@ -2212,18 +2725,24 @@
         <v>2.820592256098834E-4</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>375</v>
+        <v>377</v>
+      </c>
+      <c r="H32" t="s">
+        <v>471</v>
+      </c>
+      <c r="I32" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
         <v>-1.027920609052137</v>
@@ -2235,18 +2754,24 @@
         <v>5.085161373750392E-5</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
-        <v>376</v>
+        <v>378</v>
+      </c>
+      <c r="H33" t="s">
+        <v>469</v>
+      </c>
+      <c r="I33" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
         <v>-1.0482259299298788</v>
@@ -2258,18 +2783,24 @@
         <v>8.666221817126995E-5</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
-        <v>377</v>
+        <v>379</v>
+      </c>
+      <c r="H34" t="s">
+        <v>472</v>
+      </c>
+      <c r="I34" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
         <v>-1.0960035121695055</v>
@@ -2281,18 +2812,24 @@
         <v>3.2632011211036106E-8</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="H35" t="s">
+        <v>473</v>
+      </c>
+      <c r="I35" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
         <v>-1.0674824245779349</v>
@@ -2304,18 +2841,24 @@
         <v>1.954513921740429E-6</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="H36" t="s">
+        <v>474</v>
+      </c>
+      <c r="I36" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" t="n">
         <v>-1.0997761811666897</v>
@@ -2327,18 +2870,24 @@
         <v>6.217308451082095E-7</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G37" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="H37" t="s">
+        <v>456</v>
+      </c>
+      <c r="I37" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="n">
         <v>-1.0008799978074288</v>
@@ -2350,18 +2899,24 @@
         <v>1.4559822013188505E-8</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G38" t="s">
-        <v>381</v>
+        <v>383</v>
+      </c>
+      <c r="H38" t="s">
+        <v>475</v>
+      </c>
+      <c r="I38" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
         <v>-1.269917700811949</v>
@@ -2373,18 +2928,24 @@
         <v>9.857855816621459E-5</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="H39" t="s">
+        <v>471</v>
+      </c>
+      <c r="I39" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
         <v>1.2180247876830748</v>
@@ -2396,18 +2957,24 @@
         <v>0.009337105386504067</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>383</v>
+        <v>385</v>
+      </c>
+      <c r="H40" t="s">
+        <v>462</v>
+      </c>
+      <c r="I40" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
         <v>-1.0273720589958124</v>
@@ -2419,18 +2986,24 @@
         <v>5.069665830097687E-8</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="H41" t="s">
+        <v>453</v>
+      </c>
+      <c r="I41" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="n">
         <v>-1.9214553675562747</v>
@@ -2442,18 +3015,24 @@
         <v>1.7105273762537153E-8</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
-        <v>385</v>
+        <v>387</v>
+      </c>
+      <c r="H42" t="s">
+        <v>476</v>
+      </c>
+      <c r="I42" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="n">
         <v>-1.4346908748712202</v>
@@ -2465,18 +3044,24 @@
         <v>3.5562534188877426E-6</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G43" t="s">
-        <v>386</v>
+        <v>388</v>
+      </c>
+      <c r="H43" t="s">
+        <v>477</v>
+      </c>
+      <c r="I43" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" t="n">
         <v>-1.0361645224632334</v>
@@ -2488,18 +3073,24 @@
         <v>0.003300016976700493</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G44" t="s">
-        <v>387</v>
+        <v>389</v>
+      </c>
+      <c r="H44" t="s">
+        <v>470</v>
+      </c>
+      <c r="I44" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="n">
         <v>1.3338685757490203</v>
@@ -2511,18 +3102,24 @@
         <v>8.950521580501153E-4</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G45" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="H45" t="s">
+        <v>455</v>
+      </c>
+      <c r="I45" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="n">
         <v>2.1216800489595884</v>
@@ -2534,18 +3131,24 @@
         <v>0.002651074174271209</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G46" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+      <c r="H46" t="s">
+        <v>462</v>
+      </c>
+      <c r="I46" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="n">
         <v>-1.7992480494210235</v>
@@ -2557,18 +3160,24 @@
         <v>4.78545688705828E-13</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G47" t="s">
-        <v>390</v>
+        <v>392</v>
+      </c>
+      <c r="H47" t="s">
+        <v>462</v>
+      </c>
+      <c r="I47" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
         <v>1.7778736941751805</v>
@@ -2580,18 +3189,24 @@
         <v>0.01308874071389295</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F48" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G48" t="s">
-        <v>391</v>
+        <v>393</v>
+      </c>
+      <c r="H48" t="s">
+        <v>478</v>
+      </c>
+      <c r="I48" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="n">
         <v>-1.3160538429720299</v>
@@ -2603,18 +3218,24 @@
         <v>1.883086802133483E-6</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G49" t="s">
-        <v>392</v>
+        <v>394</v>
+      </c>
+      <c r="H49" t="s">
+        <v>479</v>
+      </c>
+      <c r="I49" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="n">
         <v>-1.1115226856052784</v>
@@ -2626,18 +3247,24 @@
         <v>3.228303967314107E-9</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G50" t="s">
-        <v>393</v>
+        <v>395</v>
+      </c>
+      <c r="H50" t="s">
+        <v>480</v>
+      </c>
+      <c r="I50" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" t="n">
         <v>-1.1162567293667114</v>
@@ -2649,18 +3276,24 @@
         <v>3.8574833632066827E-7</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G51" t="s">
-        <v>394</v>
+        <v>396</v>
+      </c>
+      <c r="H51" t="s">
+        <v>475</v>
+      </c>
+      <c r="I51" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" t="n">
         <v>-1.118306078022844</v>
@@ -2672,18 +3305,24 @@
         <v>2.9671344338842013E-8</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F52" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G52" t="s">
-        <v>395</v>
+        <v>397</v>
+      </c>
+      <c r="H52" t="s">
+        <v>481</v>
+      </c>
+      <c r="I52" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B53" t="n">
         <v>1.00129323743024</v>
@@ -2695,18 +3334,24 @@
         <v>2.9560280427350857E-6</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G53" t="s">
-        <v>396</v>
+        <v>398</v>
+      </c>
+      <c r="H53" t="s">
+        <v>482</v>
+      </c>
+      <c r="I53" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B54" t="n">
         <v>1.9239856212477306</v>
@@ -2718,18 +3363,24 @@
         <v>5.383690036818284E-4</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G54" t="s">
-        <v>397</v>
+        <v>399</v>
+      </c>
+      <c r="H54" t="s">
+        <v>462</v>
+      </c>
+      <c r="I54" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" t="n">
         <v>-1.5685310635566643</v>
@@ -2741,18 +3392,24 @@
         <v>9.8163502320288E-10</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G55" t="s">
-        <v>398</v>
+        <v>400</v>
+      </c>
+      <c r="H55" t="s">
+        <v>483</v>
+      </c>
+      <c r="I55" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B56" t="n">
         <v>-1.2481858241713462</v>
@@ -2764,18 +3421,24 @@
         <v>4.893307947688308E-8</v>
       </c>
       <c r="E56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G56" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="H56" t="s">
+        <v>484</v>
+      </c>
+      <c r="I56" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B57" t="n">
         <v>1.1526095796835156</v>
@@ -2787,18 +3450,24 @@
         <v>0.003075568165261358</v>
       </c>
       <c r="E57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G57" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="H57" t="s">
+        <v>460</v>
+      </c>
+      <c r="I57" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B58" t="n">
         <v>-1.2135128229200605</v>
@@ -2810,18 +3479,24 @@
         <v>4.0378386933998564E-8</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G58" t="s">
-        <v>401</v>
+        <v>403</v>
+      </c>
+      <c r="H58" t="s">
+        <v>485</v>
+      </c>
+      <c r="I58" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59" t="n">
         <v>1.0847628618963445</v>
@@ -2833,18 +3508,24 @@
         <v>8.647603362174967E-6</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="H59" t="s">
+        <v>468</v>
+      </c>
+      <c r="I59" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" t="n">
         <v>-1.0475820141690073</v>
@@ -2856,18 +3537,24 @@
         <v>1.0846015434070176E-5</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G60" t="s">
-        <v>403</v>
+        <v>405</v>
+      </c>
+      <c r="H60" t="s">
+        <v>466</v>
+      </c>
+      <c r="I60" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" t="n">
         <v>1.2554469391216445</v>
@@ -2879,18 +3566,24 @@
         <v>8.88752224489778E-7</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F61" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G61" t="s">
-        <v>404</v>
+        <v>406</v>
+      </c>
+      <c r="H61" t="s">
+        <v>486</v>
+      </c>
+      <c r="I61" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" t="n">
         <v>-1.085151719627248</v>
@@ -2902,18 +3595,24 @@
         <v>4.667371462330825E-7</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G62" t="s">
-        <v>405</v>
+        <v>407</v>
+      </c>
+      <c r="H62" t="s">
+        <v>459</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" t="n">
         <v>1.4232078373225965</v>
@@ -2925,18 +3624,24 @@
         <v>8.52055682905526E-6</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G63" t="s">
-        <v>406</v>
+        <v>408</v>
+      </c>
+      <c r="H63" t="s">
+        <v>487</v>
+      </c>
+      <c r="I63" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" t="n">
         <v>-1.665982502239061</v>
@@ -2948,18 +3653,24 @@
         <v>5.1498123085006776E-8</v>
       </c>
       <c r="E64" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G64" t="s">
-        <v>407</v>
+        <v>409</v>
+      </c>
+      <c r="H64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I64" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" t="n">
         <v>1.932995077408658</v>
@@ -2971,18 +3682,24 @@
         <v>4.511887609597878E-4</v>
       </c>
       <c r="E65" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G65" t="s">
-        <v>408</v>
+        <v>410</v>
+      </c>
+      <c r="H65" t="s">
+        <v>489</v>
+      </c>
+      <c r="I65" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" t="n">
         <v>1.8393277848710605</v>
@@ -3002,10 +3719,16 @@
       <c r="G66" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I66" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" t="n">
         <v>-1.2917580487158644</v>
@@ -3017,18 +3740,24 @@
         <v>2.53120190031669E-7</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G67" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="H67" t="s">
+        <v>490</v>
+      </c>
+      <c r="I67" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" t="n">
         <v>-1.2224242434948942</v>
@@ -3040,18 +3769,24 @@
         <v>4.027518864813233E-6</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G68" t="s">
-        <v>410</v>
+        <v>412</v>
+      </c>
+      <c r="H68" t="s">
+        <v>456</v>
+      </c>
+      <c r="I68" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" t="n">
         <v>1.1329385755264632</v>
@@ -3063,18 +3798,24 @@
         <v>0.01670060153690599</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G69" t="s">
-        <v>411</v>
+        <v>413</v>
+      </c>
+      <c r="H69" t="s">
+        <v>462</v>
+      </c>
+      <c r="I69" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" t="n">
         <v>-1.3244270489249927</v>
@@ -3086,18 +3827,24 @@
         <v>2.3404624845039813E-5</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G70" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="H70" t="s">
+        <v>470</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" t="n">
         <v>1.3451502501490047</v>
@@ -3117,10 +3864,16 @@
       <c r="G71" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I71" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" t="n">
         <v>1.6002544293362835</v>
@@ -3132,18 +3885,24 @@
         <v>0.01837790362013218</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G72" t="s">
-        <v>413</v>
+        <v>415</v>
+      </c>
+      <c r="H72" t="s">
+        <v>462</v>
+      </c>
+      <c r="I72" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" t="n">
         <v>-2.530455840227996</v>
@@ -3155,18 +3914,24 @@
         <v>0.0035274293658889033</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F73" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G73" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="H73" t="s">
+        <v>491</v>
+      </c>
+      <c r="I73" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" t="n">
         <v>-1.037130355280151</v>
@@ -3178,18 +3943,24 @@
         <v>8.897305959461398E-5</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G74" t="s">
-        <v>415</v>
+        <v>417</v>
+      </c>
+      <c r="H74" t="s">
+        <v>492</v>
+      </c>
+      <c r="I74" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" t="n">
         <v>1.0387366054916158</v>
@@ -3201,18 +3972,24 @@
         <v>5.422841572181146E-8</v>
       </c>
       <c r="E75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G75" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="H75" t="s">
+        <v>458</v>
+      </c>
+      <c r="I75" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" t="n">
         <v>-1.538343190663992</v>
@@ -3224,18 +4001,24 @@
         <v>7.053698396424751E-8</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G76" t="s">
-        <v>417</v>
+        <v>419</v>
+      </c>
+      <c r="H76" t="s">
+        <v>460</v>
+      </c>
+      <c r="I76" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" t="n">
         <v>1.007378972315757</v>
@@ -3247,18 +4030,24 @@
         <v>3.9455513421686445E-4</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G77" t="s">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="H77" t="s">
+        <v>493</v>
+      </c>
+      <c r="I77" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" t="n">
         <v>-1.1729535725761187</v>
@@ -3270,18 +4059,24 @@
         <v>0.004334321351275574</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F78" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G78" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="H78" t="s">
+        <v>494</v>
+      </c>
+      <c r="I78" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" t="n">
         <v>-1.017087630109538</v>
@@ -3293,18 +4088,24 @@
         <v>0.0021130069407853205</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F79" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G79" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H79" t="s">
+        <v>458</v>
+      </c>
+      <c r="I79" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B80" t="n">
         <v>-1.0102839390360996</v>
@@ -3316,18 +4117,24 @@
         <v>0.0023820264732087575</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F80" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G80" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+      <c r="H80" t="s">
+        <v>456</v>
+      </c>
+      <c r="I80" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" t="n">
         <v>-1.051634245482426</v>
@@ -3339,18 +4146,24 @@
         <v>5.644338576982217E-5</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F81" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G81" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+      <c r="H81" t="s">
+        <v>466</v>
+      </c>
+      <c r="I81" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" t="n">
         <v>-2.2821783706904637</v>
@@ -3362,18 +4175,24 @@
         <v>5.006174293693886E-13</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F82" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G82" t="s">
-        <v>423</v>
+        <v>425</v>
+      </c>
+      <c r="H82" t="s">
+        <v>495</v>
+      </c>
+      <c r="I82" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" t="n">
         <v>-1.0314861866599352</v>
@@ -3385,18 +4204,24 @@
         <v>6.165982784010262E-8</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F83" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G83" t="s">
-        <v>424</v>
+        <v>426</v>
+      </c>
+      <c r="H83" t="s">
+        <v>496</v>
+      </c>
+      <c r="I83" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" t="n">
         <v>-1.6937192463693882</v>
@@ -3408,18 +4233,24 @@
         <v>2.4304041415215382E-8</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F84" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G84" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+      <c r="H84" t="s">
+        <v>462</v>
+      </c>
+      <c r="I84" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" t="n">
         <v>-1.220735944359218</v>
@@ -3431,18 +4262,24 @@
         <v>0.0012713960030052325</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G85" t="s">
-        <v>426</v>
+        <v>428</v>
+      </c>
+      <c r="H85" t="s">
+        <v>463</v>
+      </c>
+      <c r="I85" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" t="n">
         <v>-1.2237920026185838</v>
@@ -3454,18 +4291,24 @@
         <v>0.004724270604491576</v>
       </c>
       <c r="E86" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F86" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G86" t="s">
-        <v>427</v>
+        <v>429</v>
+      </c>
+      <c r="H86" t="s">
+        <v>455</v>
+      </c>
+      <c r="I86" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" t="n">
         <v>-1.4191312725727785</v>
@@ -3477,18 +4320,24 @@
         <v>9.259561006879327E-10</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F87" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G87" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="H87" t="s">
+        <v>497</v>
+      </c>
+      <c r="I87" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" t="n">
         <v>-1.0027381656311858</v>
@@ -3500,18 +4349,24 @@
         <v>8.875776248188788E-5</v>
       </c>
       <c r="E88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F88" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G88" t="s">
-        <v>429</v>
+        <v>431</v>
+      </c>
+      <c r="H88" t="s">
+        <v>462</v>
+      </c>
+      <c r="I88" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" t="n">
         <v>-1.8756388468058027</v>
@@ -3523,18 +4378,24 @@
         <v>4.5839419711654984E-5</v>
       </c>
       <c r="E89" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F89" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G89" t="s">
-        <v>430</v>
+        <v>432</v>
+      </c>
+      <c r="H89" t="s">
+        <v>463</v>
+      </c>
+      <c r="I89" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" t="n">
         <v>-1.117414758030772</v>
@@ -3546,18 +4407,24 @@
         <v>2.2188756558817423E-11</v>
       </c>
       <c r="E90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F90" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G90" t="s">
-        <v>431</v>
+        <v>433</v>
+      </c>
+      <c r="H90" t="s">
+        <v>498</v>
+      </c>
+      <c r="I90" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" t="n">
         <v>-1.2373698251975518</v>
@@ -3569,18 +4436,24 @@
         <v>7.972237163625453E-7</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F91" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G91" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="H91" t="s">
+        <v>499</v>
+      </c>
+      <c r="I91" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" t="n">
         <v>2.0438530922858353</v>
@@ -3592,18 +4465,24 @@
         <v>0.007349154917201397</v>
       </c>
       <c r="E92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F92" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G92" t="s">
-        <v>433</v>
+        <v>435</v>
+      </c>
+      <c r="H92" t="s">
+        <v>478</v>
+      </c>
+      <c r="I92" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" t="n">
         <v>-1.4642603879395804</v>
@@ -3615,18 +4494,24 @@
         <v>4.3127350660416224E-4</v>
       </c>
       <c r="E93" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F93" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G93" t="s">
-        <v>434</v>
+        <v>436</v>
+      </c>
+      <c r="H93" t="s">
+        <v>475</v>
+      </c>
+      <c r="I93" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" t="n">
         <v>3.9030560621629045</v>
@@ -3646,10 +4531,16 @@
       <c r="G94" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I94" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" t="n">
         <v>1.3388548789966503</v>
@@ -3661,18 +4552,24 @@
         <v>0.004931414630689136</v>
       </c>
       <c r="E95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G95" t="s">
-        <v>435</v>
+        <v>437</v>
+      </c>
+      <c r="H95" t="s">
+        <v>466</v>
+      </c>
+      <c r="I95" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" t="n">
         <v>-1.1665226572963077</v>
@@ -3684,18 +4581,24 @@
         <v>7.480050010020023E-4</v>
       </c>
       <c r="E96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F96" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G96" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="H96" t="s">
+        <v>500</v>
+      </c>
+      <c r="I96" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" t="n">
         <v>-1.7530787299609252</v>
@@ -3707,18 +4610,24 @@
         <v>7.798277541729336E-8</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F97" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G97" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="H97" t="s">
+        <v>458</v>
+      </c>
+      <c r="I97" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" t="n">
         <v>-1.1842683902042408</v>
@@ -3730,18 +4639,24 @@
         <v>6.0676175307334424E-5</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F98" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G98" t="s">
-        <v>438</v>
+        <v>440</v>
+      </c>
+      <c r="H98" t="s">
+        <v>501</v>
+      </c>
+      <c r="I98" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" t="n">
         <v>-1.013999500228937</v>
@@ -3753,18 +4668,24 @@
         <v>6.320458467484673E-4</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F99" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G99" t="s">
-        <v>439</v>
+        <v>441</v>
+      </c>
+      <c r="H99" t="s">
+        <v>497</v>
+      </c>
+      <c r="I99" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" t="n">
         <v>1.050595092468644</v>
@@ -3784,10 +4705,16 @@
       <c r="G100" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I100" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" t="n">
         <v>-1.1551172725091883</v>
@@ -3799,18 +4726,24 @@
         <v>5.521321968210523E-4</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F101" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G101" t="s">
-        <v>440</v>
+        <v>442</v>
+      </c>
+      <c r="H101" t="s">
+        <v>502</v>
+      </c>
+      <c r="I101" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" t="n">
         <v>1.2695069433541186</v>
@@ -3830,10 +4763,16 @@
       <c r="G102" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I102" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" t="n">
         <v>1.1418703280868694</v>
@@ -3853,10 +4792,16 @@
       <c r="G103" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I103" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" t="n">
         <v>1.4238812960043312</v>
@@ -3868,18 +4813,24 @@
         <v>3.8902875945273543E-4</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G104" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="H104" t="s">
+        <v>503</v>
+      </c>
+      <c r="I104" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" t="n">
         <v>-1.0818336442218897</v>
@@ -3891,18 +4842,24 @@
         <v>1.3757577860824907E-7</v>
       </c>
       <c r="E105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F105" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G105" t="s">
-        <v>442</v>
+        <v>444</v>
+      </c>
+      <c r="H105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I105" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B106" t="n">
         <v>1.9338243022852275</v>
@@ -3922,10 +4879,16 @@
       <c r="G106" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I106" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" t="n">
         <v>-1.2183903061287267</v>
@@ -3945,10 +4908,16 @@
       <c r="G107" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I107" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" t="n">
         <v>-2.664836596260792</v>
@@ -3968,10 +4937,16 @@
       <c r="G108" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I108" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" t="n">
         <v>-1.1497966467157432</v>
@@ -3983,18 +4958,24 @@
         <v>1.3410522724596698E-5</v>
       </c>
       <c r="E109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G109" t="s">
-        <v>443</v>
+        <v>445</v>
+      </c>
+      <c r="H109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I109" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B110" t="n">
         <v>1.5360012725653804</v>
@@ -4006,18 +4987,24 @@
         <v>0.0032138233041245456</v>
       </c>
       <c r="E110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F110" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G110" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="H110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I110" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B111" t="n">
         <v>-1.2841582297523688</v>
@@ -4029,18 +5016,24 @@
         <v>1.865727978536527E-7</v>
       </c>
       <c r="E111" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F111" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G111" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="H111" t="s">
+        <v>459</v>
+      </c>
+      <c r="I111" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B112" t="n">
         <v>2.0388151855870675</v>
@@ -4060,10 +5053,16 @@
       <c r="G112" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I112" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B113" t="n">
         <v>-1.6166283491320628</v>
@@ -4075,18 +5074,24 @@
         <v>2.850909733132907E-6</v>
       </c>
       <c r="E113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F113" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G113" t="s">
-        <v>446</v>
+        <v>448</v>
+      </c>
+      <c r="H113" t="s">
+        <v>456</v>
+      </c>
+      <c r="I113" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B114" t="n">
         <v>-1.2269478394876754</v>
@@ -4098,18 +5103,24 @@
         <v>6.068601801026576E-4</v>
       </c>
       <c r="E114" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F114" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G114" t="s">
-        <v>447</v>
+        <v>449</v>
+      </c>
+      <c r="H114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I114" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B115" t="n">
         <v>1.0276445464927073</v>
@@ -4121,18 +5132,24 @@
         <v>0.03652677487233022</v>
       </c>
       <c r="E115" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F115" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G115" t="s">
-        <v>448</v>
+        <v>450</v>
+      </c>
+      <c r="H115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I115" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B116" t="n">
         <v>-1.033373929638539</v>
@@ -4152,10 +5169,16 @@
       <c r="G116" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I116" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B117" t="n">
         <v>-1.0421336723882972</v>
@@ -4175,10 +5198,16 @@
       <c r="G117" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I117" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B118" t="n">
         <v>-1.1193206303760872</v>
@@ -4198,10 +5227,16 @@
       <c r="G118" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I118" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B119" t="n">
         <v>-1.230670986104656</v>
@@ -4221,10 +5256,16 @@
       <c r="G119" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I119" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" t="n">
         <v>1.125571425675187</v>
@@ -4243,6 +5284,12 @@
       </c>
       <c r="G120" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="H120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I120" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
